--- a/docs/schedule/schedule.xlsx
+++ b/docs/schedule/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>2）下发抄表定时：设置下发自动抄表的时间。</t>
   </si>
@@ -205,10 +205,6 @@
   </si>
   <si>
     <t>熟悉界面搭建方法, 熟悉读取与设置GUI_EDIT的值, 熟悉DBF数据库的读取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -224,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,14 +260,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -365,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -394,6 +382,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -412,55 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -746,7 +728,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E31"/>
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,7 +736,7 @@
     <col min="1" max="3" width="21.25" style="1"/>
     <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
-    <col min="6" max="8" width="21.25" style="20"/>
+    <col min="6" max="8" width="21.25" style="12"/>
     <col min="9" max="16384" width="21.25" style="1"/>
   </cols>
   <sheetData>
@@ -777,43 +759,43 @@
       <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="6">
         <v>4</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="13">
         <v>42548</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="13">
         <v>42551</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -822,167 +804,167 @@
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="13">
         <v>42552</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="13">
         <v>42553</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="13">
         <v>42563</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="13">
         <v>42566</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="F5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="13">
         <v>42567</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="13">
         <f>G5+E5-1</f>
         <v>42568</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="F6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="13">
         <f>H5+1</f>
         <v>42569</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="13">
         <f t="shared" ref="H6:H7" si="0">G6+E6-1</f>
         <v>42570</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="13">
         <f>H6+1</f>
         <v>42571</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>42571</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="4">
         <v>6</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="F8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="13">
         <v>42556</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="13">
         <v>42564</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="13">
         <v>42562</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="13">
         <v>42564</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="25">
+      <c r="F10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="13">
         <f>H7+1</f>
         <v>42572</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="13">
         <f t="shared" ref="H10:H15" si="1">G10+E10-1</f>
         <v>42572</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -991,170 +973,170 @@
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="25">
+      <c r="F11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="16">
         <f>H10+1</f>
         <v>42573</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="15">
         <f t="shared" si="1"/>
         <v>42573</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="24">
         <v>6</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="15">
         <f>H11+1</f>
         <v>42574</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="15">
         <f t="shared" si="1"/>
         <v>42579</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="E13" s="25"/>
+      <c r="F13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="15">
         <f t="shared" ref="G13:G15" si="2">H12+1</f>
         <v>42580</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="15">
         <f t="shared" si="1"/>
         <v>42579</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="23">
+      <c r="F14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="15">
         <f t="shared" si="2"/>
         <v>42580</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="15">
         <f t="shared" si="1"/>
         <v>42581</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="F15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="15">
         <f t="shared" si="2"/>
         <v>42582</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="15">
         <f t="shared" si="1"/>
         <v>42582</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="24">
         <v>2</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="27">
+      <c r="F16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="21">
         <f>H15+1</f>
         <v>42583</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="21">
         <f>G16+E16-1</f>
         <v>42584</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1163,66 +1145,66 @@
       <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="25">
+      <c r="F20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="16">
         <f>H16+1</f>
         <v>42585</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="16">
         <f>G20+E20-1</f>
         <v>42586</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="25">
+      <c r="F21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="16">
         <f>H20+1</f>
         <v>42587</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="16">
         <f t="shared" ref="H21:H24" si="3">G21+E21-1</f>
         <v>42588</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="25">
+      <c r="F22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="16">
         <f t="shared" ref="G22:G24" si="4">H21+1</f>
         <v>42589</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="16">
         <f t="shared" si="3"/>
         <v>42591</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1231,163 +1213,163 @@
       <c r="E23" s="4">
         <v>2</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="25">
+      <c r="F23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="16">
         <f t="shared" si="4"/>
         <v>42592</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="16">
         <f t="shared" si="3"/>
         <v>42593</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="25">
+      <c r="F24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="16">
         <f t="shared" si="4"/>
         <v>42594</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="16">
         <f t="shared" si="3"/>
         <v>42595</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="28">
         <v>1</v>
       </c>
-      <c r="F25" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="27">
+      <c r="F25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="21">
         <f>H24+1</f>
         <v>42596</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="21">
         <f>G25+E25-1</f>
         <v>42596</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="30">
         <v>1</v>
       </c>
-      <c r="F27" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="27">
+      <c r="F27" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="21">
         <f>H25+1</f>
         <v>42597</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="21">
         <f>G27+E27-1</f>
         <v>42597</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="8">
         <f>SUM(E2:E31)</f>
         <v>49</v>
@@ -1395,6 +1377,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B31"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="G16:G19"/>
@@ -1409,17 +1402,6 @@
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B3:B19"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B31"/>
     <mergeCell ref="E27:E31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/schedule/schedule.xlsx
+++ b/docs/schedule/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>2）下发抄表定时：设置下发自动抄表的时间。</t>
   </si>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4）通过集中器号和计量点从集中器中读取最近一次历史数据中的对应计量点的数据。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5） 集中器版本查询，包括集中器嵌入式软件版本、硬件版本查询。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -213,6 +209,14 @@
   </si>
   <si>
     <t>未开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）通过集中器号和计量点透传数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -398,10 +402,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -438,9 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -727,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,16 +743,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>11</v>
@@ -760,10 +761,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -771,11 +772,11 @@
         <v>10</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="6">
         <v>4</v>
@@ -825,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="13">
         <v>42563</v>
@@ -845,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="13">
         <v>42567</v>
@@ -866,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="13">
         <f>H5+1</f>
@@ -888,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="13">
         <f>H6+1</f>
@@ -910,7 +911,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="13">
         <v>42556</v>
@@ -973,14 +974,14 @@
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <f>H10+1</f>
         <v>42573</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <f t="shared" si="1"/>
         <v>42573</v>
       </c>
@@ -992,11 +993,11 @@
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="24">
-        <v>6</v>
+      <c r="E12" s="4">
+        <v>4</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="15">
         <f>H11+1</f>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="H12" s="15">
         <f t="shared" si="1"/>
-        <v>42579</v>
+        <v>42577</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
@@ -1014,31 +1015,33 @@
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="13">
         <f t="shared" ref="G13:G15" si="2">H12+1</f>
-        <v>42580</v>
-      </c>
-      <c r="H13" s="15">
+        <v>42578</v>
+      </c>
+      <c r="H13" s="13">
         <f t="shared" si="1"/>
         <v>42579</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" si="2"/>
@@ -1054,19 +1057,19 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="13">
         <f t="shared" si="2"/>
         <v>42582</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <f t="shared" si="1"/>
         <v>42582</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="21">
         <f>H15+1</f>
@@ -1100,7 +1103,7 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="19"/>
@@ -1112,7 +1115,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="19"/>
@@ -1124,7 +1127,7 @@
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="20"/>
@@ -1137,7 +1140,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1146,13 +1149,13 @@
         <v>2</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="16">
+        <v>49</v>
+      </c>
+      <c r="G20" s="15">
         <f>H16+1</f>
         <v>42585</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <f>G20+E20-1</f>
         <v>42586</v>
       </c>
@@ -1162,19 +1165,19 @@
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="16">
+        <v>49</v>
+      </c>
+      <c r="G21" s="15">
         <f>H20+1</f>
         <v>42587</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <f t="shared" ref="H21:H24" si="3">G21+E21-1</f>
         <v>42588</v>
       </c>
@@ -1184,19 +1187,19 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="16">
+        <v>49</v>
+      </c>
+      <c r="G22" s="15">
         <f t="shared" ref="G22:G24" si="4">H21+1</f>
         <v>42589</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <f t="shared" si="3"/>
         <v>42591</v>
       </c>
@@ -1214,13 +1217,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="16">
+        <v>49</v>
+      </c>
+      <c r="G23" s="15">
         <f t="shared" si="4"/>
         <v>42592</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <f t="shared" si="3"/>
         <v>42593</v>
       </c>
@@ -1236,13 +1239,13 @@
         <v>2</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="16">
+        <v>49</v>
+      </c>
+      <c r="G24" s="15">
         <f t="shared" si="4"/>
         <v>42594</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <f t="shared" si="3"/>
         <v>42595</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="21">
         <f>H24+1</f>
@@ -1276,7 +1279,7 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="20"/>
@@ -1286,7 +1289,7 @@
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>16</v>
@@ -1294,11 +1297,11 @@
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <v>1</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="21">
         <f>H25+1</f>
@@ -1314,9 +1317,9 @@
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="30"/>
+        <v>27</v>
+      </c>
+      <c r="E28" s="29"/>
       <c r="F28" s="19"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
@@ -1325,12 +1328,12 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="19"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -1339,12 +1342,12 @@
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="19"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -1353,30 +1356,43 @@
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="20"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="8">
         <f>SUM(E2:E31)</f>
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C15"/>
@@ -1389,20 +1405,6 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A2:A31"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/schedule/schedule.xlsx
+++ b/docs/schedule/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>2）下发抄表定时：设置下发自动抄表的时间。</t>
   </si>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t>4）通过集中器号和计量点透传数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -404,47 +408,65 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,13 +790,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
@@ -792,11 +814,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -816,9 +838,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -836,9 +858,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -857,9 +879,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
@@ -879,9 +901,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
@@ -901,9 +923,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
@@ -921,9 +943,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
@@ -941,9 +963,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
@@ -963,9 +985,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -987,31 +1009,31 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="F12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="13">
         <f>H11+1</f>
         <v>42574</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
         <v>42577</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1031,31 +1053,31 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="F14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="13">
         <f t="shared" si="2"/>
         <v>42580</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <f t="shared" si="1"/>
         <v>42581</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1063,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" si="2"/>
@@ -1075,71 +1097,71 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="16">
         <v>2</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="21">
+      <c r="F16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="33">
         <f>H15+1</f>
         <v>42583</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="33">
         <f>G16+E16-1</f>
         <v>42584</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1161,9 +1183,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1183,9 +1205,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
@@ -1205,9 +1227,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1229,9 +1251,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
@@ -1251,128 +1273,128 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="20">
         <v>1</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="25">
         <f>H24+1</f>
         <v>42596</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="25">
         <f>G25+E25-1</f>
         <v>42596</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="21">
         <v>1</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="25">
         <f>H25+1</f>
         <v>42597</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="25">
         <f>G27+E27-1</f>
         <v>42597</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="8">
         <f>SUM(E2:E31)</f>
         <v>49</v>
@@ -1380,19 +1402,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C15"/>
@@ -1405,6 +1414,19 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A2:A31"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F16:F19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/schedule/schedule.xlsx
+++ b/docs/schedule/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>2）下发抄表定时：设置下发自动抄表的时间。</t>
   </si>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t>4）通过集中器号和计量点透传数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -408,6 +412,39 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -426,30 +463,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -457,15 +470,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -750,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -790,13 +794,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
@@ -814,11 +818,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -838,9 +842,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -858,9 +862,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -879,9 +883,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
@@ -901,9 +905,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,9 +927,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
@@ -943,9 +947,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
@@ -963,9 +967,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
@@ -985,9 +989,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1009,9 +1013,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1031,9 +1035,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1053,9 +1057,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
@@ -1075,9 +1079,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1097,71 +1101,71 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="27">
         <v>2</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="18">
         <f>H15+1</f>
         <v>42583</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="18">
         <f>G16+E16-1</f>
         <v>42584</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1170,22 +1174,22 @@
       <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="F20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="13">
         <f>H16+1</f>
         <v>42585</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="13">
         <f>G20+E20-1</f>
         <v>42586</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1205,9 +1209,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
@@ -1227,9 +1231,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1251,9 +1255,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
@@ -1273,128 +1277,128 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="31">
         <v>1</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="25">
+      <c r="F25" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="18">
         <f>H24+1</f>
         <v>42596</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="18">
         <f>G25+E25-1</f>
         <v>42596</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="32">
         <v>1</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <f>H25+1</f>
         <v>42597</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="24">
         <f>G27+E27-1</f>
         <v>42597</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="8">
         <f>SUM(E2:E31)</f>
         <v>49</v>
@@ -1402,6 +1406,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C15"/>
@@ -1414,19 +1431,6 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A2:A31"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="F16:F19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/schedule/schedule.xlsx
+++ b/docs/schedule/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>2）下发抄表定时：设置下发自动抄表的时间。</t>
   </si>
@@ -205,10 +205,6 @@
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -232,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,21 +273,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -324,48 +305,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -379,98 +323,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,66 +656,66 @@
     <col min="1" max="3" width="21.25" style="1"/>
     <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
-    <col min="6" max="8" width="21.25" style="12"/>
+    <col min="6" max="8" width="21.25" style="7"/>
     <col min="9" max="16384" width="21.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="10">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="8">
         <v>42548</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="8">
         <v>42551</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -831,167 +724,167 @@
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="8">
         <v>42552</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="8">
         <v>42553</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="8">
         <v>42563</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
         <v>42566</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="8">
         <v>42567</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="8">
         <f>G5+E5-1</f>
         <v>42568</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="8">
         <f>H5+1</f>
         <v>42569</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H7" si="0">G6+E6-1</f>
         <v>42570</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="8">
         <f>H6+1</f>
         <v>42571</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>42571</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="4">
         <v>6</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="8">
         <v>42556</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="8">
         <v>42564</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="8">
         <v>42562</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="8">
         <v>42564</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="8">
         <f>H7+1</f>
         <v>42572</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="8">
         <f t="shared" ref="H10:H15" si="1">G10+E10-1</f>
         <v>42572</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1000,172 +893,172 @@
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="8">
         <f>H10+1</f>
         <v>42573</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="8">
         <f t="shared" si="1"/>
         <v>42573</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="8">
         <f>H11+1</f>
         <v>42574</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="8">
         <f t="shared" si="1"/>
         <v>42577</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="8">
         <f t="shared" ref="G13:G15" si="2">H12+1</f>
         <v>42578</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="8">
         <f t="shared" si="1"/>
         <v>42579</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
         <v>42580</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="8">
         <f t="shared" si="1"/>
         <v>42581</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" si="2"/>
         <v>42582</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="8">
         <f t="shared" si="1"/>
         <v>42582</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="12">
         <v>2</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <f>H15+1</f>
         <v>42583</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <f>G16+E16-1</f>
         <v>42584</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1174,66 +1067,66 @@
       <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="8">
         <f>H16+1</f>
         <v>42585</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="8">
         <f>G20+E20-1</f>
         <v>42586</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="F21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="8">
         <f>H20+1</f>
         <v>42587</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="8">
         <f t="shared" ref="H21:H24" si="3">G21+E21-1</f>
         <v>42588</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="15">
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="8">
         <f t="shared" ref="G22:G24" si="4">H21+1</f>
         <v>42589</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="8">
         <f t="shared" si="3"/>
         <v>42591</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1242,183 +1135,173 @@
       <c r="E23" s="4">
         <v>2</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="4"/>
         <v>42592</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="8">
         <f t="shared" si="3"/>
         <v>42593</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="15">
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="4"/>
         <v>42594</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="8">
         <f t="shared" si="3"/>
         <v>42595</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="12">
         <v>1</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="F25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="17">
         <f>H24+1</f>
         <v>42596</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="17">
         <f>G25+E25-1</f>
         <v>42596</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="13">
         <v>1</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="24">
+      <c r="F27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="17">
         <f>H25+1</f>
         <v>42597</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="17">
         <f>G27+E27-1</f>
         <v>42597</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="5" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="8">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="4">
         <f>SUM(E2:E31)</f>
         <v>49</v>
       </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C15"/>
@@ -1431,6 +1314,19 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A2:A31"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F16:F19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
